--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\Orange\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\katalon\Orange_Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27657BB8-5DCA-4B4D-8EA7-4E85973A85DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B18518-359A-431E-ACD3-9AD7C52AB7E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13445" yWindow="599" windowWidth="13273" windowHeight="13630" activeTab="1" xr2:uid="{660EA583-7B72-4181-AE96-9CADD37FD90A}"/>
   </bookViews>
   <sheets>
     <sheet name="search" sheetId="1" r:id="rId1"/>
     <sheet name="Sign_up" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>test</t>
   </si>
@@ -73,21 +73,12 @@
     <t>Testt</t>
   </si>
   <si>
-    <t>Testtt</t>
-  </si>
-  <si>
     <t>Testyy</t>
   </si>
   <si>
     <t>t</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -95,15 +86,6 @@
   </si>
   <si>
     <t>testty@gmail.com</t>
-  </si>
-  <si>
-    <t>testtr@gmail.com</t>
-  </si>
-  <si>
-    <t>testty@fdd.com</t>
-  </si>
-  <si>
-    <t>testtyds@gmail.com</t>
   </si>
   <si>
     <t>testty@a.com</t>
@@ -596,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B46F4-369A-4710-A8FB-7A0B687055DC}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -629,10 +611,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4">
         <v>578578578</v>
@@ -643,65 +625,35 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>562562562</v>
+        <v>589587589</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>589587589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>548548548</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2">
-        <v>514514514</v>
+      <c r="D4" s="4">
+        <v>578578578</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{37AEDD0B-1284-4B96-948A-9473FF7F2CD1}"/>
-    <hyperlink ref="C3:C6" r:id="rId2" display="testty@gmail.com" xr:uid="{006C8536-5DD5-4B8E-9600-310458C75C64}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{7855499D-4170-4CBB-8727-C142EE4A893A}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{ECE65D34-71B3-435E-AB26-9D0B711F7A0A}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{BC3B5A49-DB3F-4B93-808B-46D568F4A2C0}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{596C266A-6F0C-4BCD-920C-89B7B7AAFD1C}"/>
+    <hyperlink ref="C3:C4" r:id="rId2" display="testty@gmail.com" xr:uid="{006C8536-5DD5-4B8E-9600-310458C75C64}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{ECE65D34-71B3-435E-AB26-9D0B711F7A0A}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{596C266A-6F0C-4BCD-920C-89B7B7AAFD1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,12 +661,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D07D920-C816-4BE8-A306-DB4D8BDFECD8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>567567567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>520039527</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>